--- a/agri420k.xlsx
+++ b/agri420k.xlsx
@@ -29,34 +29,625 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>Agriculture Downstream Task Datasets</t>
-  </si>
-  <si>
-    <t>Affiliation</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Dataset capacity</t>
-  </si>
-  <si>
-    <t>The number of dataset classifications</t>
-  </si>
-  <si>
-    <t>Number of training sets</t>
-  </si>
-  <si>
-    <t>Number of test sets</t>
-  </si>
-  <si>
-    <t>URL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="243">
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Animal surveillance</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>Horse</t>
+  </si>
+  <si>
+    <t>A003</t>
+  </si>
+  <si>
+    <t>Elephant</t>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>A005</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>A006</t>
+  </si>
+  <si>
+    <t>Monkey</t>
+  </si>
+  <si>
+    <t>A007</t>
+  </si>
+  <si>
+    <t>Zebra</t>
+  </si>
+  <si>
+    <t>A008</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>A009</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>A010</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>A011</t>
+  </si>
+  <si>
+    <t>Lion</t>
+  </si>
+  <si>
+    <t>A012</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>A013</t>
+  </si>
+  <si>
+    <t>Panda</t>
+  </si>
+  <si>
+    <t>A014</t>
+  </si>
+  <si>
+    <t>Hippopotamus</t>
+  </si>
+  <si>
+    <t>A015</t>
+  </si>
+  <si>
+    <t>Giraffe</t>
+  </si>
+  <si>
+    <t>A016</t>
+  </si>
+  <si>
+    <t>Bear</t>
+  </si>
+  <si>
+    <t>A017</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>A018</t>
+  </si>
+  <si>
+    <t>Snake</t>
+  </si>
+  <si>
+    <t>A019</t>
+  </si>
+  <si>
+    <t>Bird</t>
+  </si>
+  <si>
+    <t>A020</t>
+  </si>
+  <si>
+    <t>Leopard</t>
+  </si>
+  <si>
+    <t>A021</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>A022</t>
+  </si>
+  <si>
+    <t>Squirrel</t>
+  </si>
+  <si>
+    <t>A023</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>A024</t>
+  </si>
+  <si>
+    <t>Scorpion</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>Crocodile</t>
+  </si>
+  <si>
+    <t>A026</t>
+  </si>
+  <si>
+    <t>Goose</t>
+  </si>
+  <si>
+    <t>A027</t>
+  </si>
+  <si>
+    <t>Duck</t>
+  </si>
+  <si>
+    <t>A028</t>
+  </si>
+  <si>
+    <t>Camel</t>
+  </si>
+  <si>
+    <t>A029</t>
+  </si>
+  <si>
+    <t>Weed management</t>
+  </si>
+  <si>
+    <t>Deep</t>
+  </si>
+  <si>
+    <t>A030</t>
+  </si>
+  <si>
+    <t>Cotton</t>
+  </si>
+  <si>
+    <t>A031</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>A032</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>A033</t>
+  </si>
+  <si>
+    <t>Soybean</t>
+  </si>
+  <si>
+    <t>A034</t>
+  </si>
+  <si>
+    <t>Agricultural remote sensing</t>
+  </si>
+  <si>
+    <t>Farmland</t>
+  </si>
+  <si>
+    <t>A035</t>
+  </si>
+  <si>
+    <t>Wet Farmland</t>
+  </si>
+  <si>
+    <t>A036</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>A037</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>A038</t>
+  </si>
+  <si>
+    <t>Grassland</t>
+  </si>
+  <si>
+    <t>A039</t>
+  </si>
+  <si>
+    <t>Dry Farmland</t>
+  </si>
+  <si>
+    <t>A040</t>
+  </si>
+  <si>
+    <t>Flood</t>
+  </si>
+  <si>
+    <t>A041</t>
+  </si>
+  <si>
+    <t>Insect surveillance</t>
+  </si>
+  <si>
+    <t>Butterfly</t>
+  </si>
+  <si>
+    <t>A042</t>
+  </si>
+  <si>
+    <t>Locust</t>
+  </si>
+  <si>
+    <t>A043</t>
+  </si>
+  <si>
+    <t>Weevil</t>
+  </si>
+  <si>
+    <t>A044</t>
+  </si>
+  <si>
+    <t>Bee</t>
+  </si>
+  <si>
+    <t>A045</t>
+  </si>
+  <si>
+    <t>Beetle</t>
+  </si>
+  <si>
+    <t>A046</t>
+  </si>
+  <si>
+    <t>Dragonfly</t>
+  </si>
+  <si>
+    <t>A047</t>
+  </si>
+  <si>
+    <t>Mantis</t>
+  </si>
+  <si>
+    <t>A048</t>
+  </si>
+  <si>
+    <t>Ladybug</t>
+  </si>
+  <si>
+    <t>A049</t>
+  </si>
+  <si>
+    <t>Mosquito</t>
+  </si>
+  <si>
+    <t>A050</t>
+  </si>
+  <si>
+    <t>Ant</t>
+  </si>
+  <si>
+    <t>A051</t>
+  </si>
+  <si>
+    <t>Moth</t>
+  </si>
+  <si>
+    <t>A052</t>
+  </si>
+  <si>
+    <t>Fruit identification</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>A053</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>A054</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>A055</t>
+  </si>
+  <si>
+    <t>Strawberry</t>
+  </si>
+  <si>
+    <t>A056</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>A057</t>
+  </si>
+  <si>
+    <t>Kiwi</t>
+  </si>
+  <si>
+    <t>A058</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>A059</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>A060</t>
+  </si>
+  <si>
+    <t>Pear</t>
+  </si>
+  <si>
+    <t>A061</t>
+  </si>
+  <si>
+    <t>Cantaloupe</t>
+  </si>
+  <si>
+    <t>A062</t>
+  </si>
+  <si>
+    <t>Pomegranate</t>
+  </si>
+  <si>
+    <t>A063</t>
+  </si>
+  <si>
+    <t>Grape</t>
+  </si>
+  <si>
+    <t>A064</t>
+  </si>
+  <si>
+    <t>Watermelon</t>
+  </si>
+  <si>
+    <t>A065</t>
+  </si>
+  <si>
+    <t>Pitaya</t>
+  </si>
+  <si>
+    <t>A066</t>
+  </si>
+  <si>
+    <t>Starfruit</t>
+  </si>
+  <si>
+    <t>A067</t>
+  </si>
+  <si>
+    <t>Longan</t>
+  </si>
+  <si>
+    <t>A068</t>
+  </si>
+  <si>
+    <t>Avocado</t>
+  </si>
+  <si>
+    <t>A069</t>
+  </si>
+  <si>
+    <t>Coconut</t>
+  </si>
+  <si>
+    <t>A070</t>
+  </si>
+  <si>
+    <t>Jackfruit</t>
+  </si>
+  <si>
+    <t>A071</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>A072</t>
+  </si>
+  <si>
+    <t>Vegetable monitoring</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>A073</t>
+  </si>
+  <si>
+    <t>Carrot</t>
+  </si>
+  <si>
+    <t>A074</t>
+  </si>
+  <si>
+    <t>Cucumber</t>
+  </si>
+  <si>
+    <t>A075</t>
+  </si>
+  <si>
+    <t>Pepper</t>
+  </si>
+  <si>
+    <t>A076</t>
+  </si>
+  <si>
+    <t>A077</t>
+  </si>
+  <si>
+    <t>Eggplant</t>
+  </si>
+  <si>
+    <t>A078</t>
+  </si>
+  <si>
+    <t>Bell Pepper</t>
+  </si>
+  <si>
+    <t>A079</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>A080</t>
+  </si>
+  <si>
+    <t>Cauliflower</t>
+  </si>
+  <si>
+    <t>A081</t>
+  </si>
+  <si>
+    <t>Broccoli</t>
+  </si>
+  <si>
+    <t>A082</t>
+  </si>
+  <si>
+    <t>Yardlong Bean</t>
+  </si>
+  <si>
+    <t>A083</t>
+  </si>
+  <si>
+    <t>Cabbage</t>
+  </si>
+  <si>
+    <t>A084</t>
+  </si>
+  <si>
+    <t>White Radish</t>
+  </si>
+  <si>
+    <t>A085</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>A086</t>
+  </si>
+  <si>
+    <t>Beans</t>
+  </si>
+  <si>
+    <t>A087</t>
+  </si>
+  <si>
+    <t>Winter Melon</t>
+  </si>
+  <si>
+    <t>A088</t>
+  </si>
+  <si>
+    <t>Okra</t>
+  </si>
+  <si>
+    <t>A089</t>
+  </si>
+  <si>
+    <t>Crop monitoring</t>
+  </si>
+  <si>
+    <t>Ginger</t>
+  </si>
+  <si>
+    <t>A090</t>
+  </si>
+  <si>
+    <t>Sweet Potato</t>
+  </si>
+  <si>
+    <t>A091</t>
+  </si>
+  <si>
+    <t>A092</t>
+  </si>
+  <si>
+    <t>Garlic</t>
+  </si>
+  <si>
+    <t>A093</t>
+  </si>
+  <si>
+    <t>Pea</t>
+  </si>
+  <si>
+    <t>A094</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>A095</t>
+  </si>
+  <si>
+    <t>Peanut</t>
+  </si>
+  <si>
+    <t>A096</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>A097</t>
+  </si>
+  <si>
+    <t>Crop seed testing</t>
+  </si>
+  <si>
+    <t>A098</t>
   </si>
   <si>
     <r>
-      <t>Scenario</t>
+      <t>Rice</t>
     </r>
     <r>
       <rPr>
@@ -65,302 +656,119 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>(Sprouted)</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>Animal surveillance</t>
-  </si>
-  <si>
-    <t>agri_1</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/datasets/jerrinbright/cheetahtigerwolf</t>
-  </si>
-  <si>
-    <r>
-      <t>Scenario</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>Weed management</t>
-  </si>
-  <si>
-    <t>agri_2</t>
-  </si>
-  <si>
-    <r>
-      <t>Scenario</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>Agricultural remote sensing</t>
-  </si>
-  <si>
-    <t>agri_3</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/datasets/noamaanabdulazeem/myfile</t>
-  </si>
-  <si>
-    <r>
-      <t>Scenario</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <t>Insect surveillance</t>
-  </si>
-  <si>
-    <t>agri_4</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/datasets/mistag/arthropod-taxonomy-orders-object-detection-dataset</t>
-  </si>
-  <si>
-    <r>
-      <t>Scenario</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <t>Fruit identification</t>
-  </si>
-  <si>
-    <t>agri_5</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/datasets/shadikfaysal/fruit-and-vegetables-ssm?resource=download</t>
-  </si>
-  <si>
-    <r>
-      <t>Scenario</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <t>Vegetable monitoring</t>
-  </si>
-  <si>
-    <t>agri_6</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/datasets/keycia/vegetables-nutrionix</t>
-  </si>
-  <si>
-    <r>
-      <t>Scenario</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <t>Crop monitoring</t>
-  </si>
-  <si>
-    <t>agri_7</t>
-  </si>
-  <si>
-    <r>
-      <t>Scenario</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-  </si>
-  <si>
-    <t>Crop seed testing</t>
-  </si>
-  <si>
-    <t>agri_8</t>
-  </si>
-  <si>
-    <r>
-      <t>Scenario</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9</t>
-    </r>
+  </si>
+  <si>
+    <t>A099</t>
+  </si>
+  <si>
+    <t>A100</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>A101</t>
+  </si>
+  <si>
+    <t>A102</t>
   </si>
   <si>
     <t>Pest and disease detection</t>
   </si>
   <si>
-    <t>agri_9</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/datasets/kushagra3204/wheat-plant-diseases</t>
-  </si>
-  <si>
-    <r>
-      <t>Scenario</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-  </si>
-  <si>
-    <t>Agricultural machinery identification</t>
-  </si>
-  <si>
-    <t>agri_10</t>
+    <t>A103</t>
+  </si>
+  <si>
+    <t>A104</t>
+  </si>
+  <si>
+    <t>Apple Leaf</t>
+  </si>
+  <si>
+    <t>A105</t>
+  </si>
+  <si>
+    <t>A106</t>
+  </si>
+  <si>
+    <t>A107</t>
+  </si>
+  <si>
+    <t>A108</t>
+  </si>
+  <si>
+    <t>Various Plants</t>
+  </si>
+  <si>
+    <t>A109</t>
+  </si>
+  <si>
+    <t>A110</t>
+  </si>
+  <si>
+    <t>A111</t>
+  </si>
+  <si>
+    <t>A112</t>
+  </si>
+  <si>
+    <t>A113</t>
+  </si>
+  <si>
+    <t>Wheat Kernel</t>
+  </si>
+  <si>
+    <t>A114</t>
+  </si>
+  <si>
+    <t>A115</t>
+  </si>
+  <si>
+    <t>A116</t>
+  </si>
+  <si>
+    <t>A117</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>A118</t>
+  </si>
+  <si>
+    <t>Apple Tree</t>
+  </si>
+  <si>
+    <t>A119</t>
+  </si>
+  <si>
+    <t>Flower</t>
+  </si>
+  <si>
+    <t>A120</t>
+  </si>
+  <si>
+    <t>Hyperspectral Apple</t>
+  </si>
+  <si>
+    <t>A121</t>
+  </si>
+  <si>
+    <t>Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>A122</t>
+  </si>
+  <si>
+    <t>Corn Seedling</t>
+  </si>
+  <si>
+    <t>A123</t>
   </si>
 </sst>
 </file>
@@ -373,7 +781,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +791,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -726,7 +1140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -763,6 +1177,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -784,6 +1209,15 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -904,137 +1338,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1042,9 +1476,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1361,19 +1807,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="7" width="20.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="37.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="21.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="20.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="7.77777777777778" customWidth="1"/>
+    <col min="4" max="4" width="8.11111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:8">
+    <row r="1" ht="15.15" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1383,283 +1831,1519 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" ht="15.15" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="D2" s="5">
+        <v>23170</v>
+      </c>
+    </row>
+    <row r="3" ht="15.15" spans="1:4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D3" s="5">
+        <v>19836</v>
+      </c>
+    </row>
+    <row r="4" ht="15.15" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
-        <v>24639</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D4" s="5">
+        <v>15211</v>
+      </c>
+    </row>
+    <row r="5" ht="15.15" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>12731</v>
+      </c>
+    </row>
+    <row r="6" ht="15.15" spans="1:4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8565</v>
+      </c>
+    </row>
+    <row r="7" ht="15.15" spans="1:4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="8" ht="15.15" spans="1:4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5">
+        <v>6256</v>
+      </c>
+    </row>
+    <row r="9" ht="15.15" spans="1:4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5978</v>
+      </c>
+    </row>
+    <row r="10" ht="15.15" spans="1:4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="11" ht="15.15" spans="1:4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="12" ht="15.15" spans="1:4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4591</v>
+      </c>
+    </row>
+    <row r="13" ht="15.15" spans="1:4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="14" ht="15.15" spans="1:4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="3">
-        <v>22190</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2449</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="30" customHeight="1" spans="1:8">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3">
-        <v>11691</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3">
-        <v>10524</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1167</v>
-      </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" ht="30" customHeight="1" spans="1:8">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3">
-        <v>36707</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D14" s="5">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="15" ht="15.15" spans="1:4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="16" ht="15.15" spans="1:4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="17" ht="15.15" spans="1:4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="18" ht="15.15" spans="1:4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="19" ht="15.15" spans="1:4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="20" ht="15.15" spans="1:4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="21" ht="15.15" spans="1:4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="22" ht="15.15" spans="1:4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="3">
-        <v>33058</v>
-      </c>
-      <c r="G4" s="3">
-        <v>3649</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" ht="30" customHeight="1" spans="1:8">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3">
-        <v>15376</v>
-      </c>
-      <c r="E5" s="3">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3">
-        <v>13842</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1534</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" ht="30" customHeight="1" spans="1:8">
-      <c r="A6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3">
-        <v>14998</v>
-      </c>
-      <c r="E6" s="3">
-        <v>30</v>
-      </c>
-      <c r="F6" s="3">
-        <v>13499</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1499</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" ht="30" customHeight="1" spans="1:8">
-      <c r="A7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="3">
-        <v>22583</v>
-      </c>
-      <c r="E7" s="3">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3">
-        <v>20332</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2251</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" ht="30" customHeight="1" spans="1:8">
-      <c r="A8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="3">
-        <v>13735</v>
-      </c>
-      <c r="E8" s="3">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3">
-        <v>12364</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1371</v>
-      </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" ht="30" customHeight="1" spans="1:8">
-      <c r="A9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6676</v>
-      </c>
-      <c r="E9" s="3">
-        <v>24</v>
-      </c>
-      <c r="F9" s="3">
-        <v>6009</v>
-      </c>
-      <c r="G9" s="3">
-        <v>667</v>
-      </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="1:8">
-      <c r="A10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3">
-        <v>13104</v>
-      </c>
-      <c r="E10" s="3">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3">
-        <v>11797</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1307</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="1:8">
-      <c r="A11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4345</v>
-      </c>
-      <c r="E11" s="3">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3917</v>
-      </c>
-      <c r="G11" s="3">
-        <v>428</v>
-      </c>
-      <c r="H11" s="3"/>
+      <c r="C22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="23" ht="15.15" spans="1:4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="24" ht="15.15" spans="1:4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="25" ht="15.15" spans="1:4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="26" ht="15.15" spans="1:4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="27" ht="15.15" spans="1:4">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="5">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="28" ht="15.15" spans="1:4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="5">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="29" ht="15.15" spans="1:4">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="5">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="30" ht="15.15" spans="1:4">
+      <c r="A30" s="6"/>
+      <c r="B30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="5">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="31" ht="15.15" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="5">
+        <v>17609</v>
+      </c>
+    </row>
+    <row r="32" ht="15.15" spans="1:4">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="5">
+        <v>5258</v>
+      </c>
+    </row>
+    <row r="33" ht="15.15" spans="1:4">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3911</v>
+      </c>
+    </row>
+    <row r="34" ht="15.15" spans="1:4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="35" ht="15.15" spans="1:4">
+      <c r="A35" s="6"/>
+      <c r="B35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="36" ht="15.15" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="5">
+        <v>9921</v>
+      </c>
+    </row>
+    <row r="37" ht="15.15" spans="1:4">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="5">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="38" ht="15.15" spans="1:4">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="5">
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="39" ht="15.15" spans="1:4">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="40" ht="15.15" spans="1:4">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="41" ht="15.15" spans="1:4">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="42" ht="15.15" spans="1:4">
+      <c r="A42" s="6"/>
+      <c r="B42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="5">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="43" ht="15.15" spans="1:4">
+      <c r="A43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="5">
+        <v>8581</v>
+      </c>
+    </row>
+    <row r="44" ht="15.15" spans="1:4">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="45" ht="15.15" spans="1:4">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="46" ht="15.15" spans="1:4">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="47" ht="15.15" spans="1:4">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="48" ht="15.15" spans="1:4">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="49" ht="15.15" spans="1:4">
+      <c r="A49" s="3"/>
+      <c r="B49" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="50" ht="15.15" spans="1:4">
+      <c r="A50" s="3"/>
+      <c r="B50" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="51" ht="15.15" spans="1:4">
+      <c r="A51" s="3"/>
+      <c r="B51" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="5">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="52" ht="15.15" spans="1:4">
+      <c r="A52" s="3"/>
+      <c r="B52" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="5">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="53" ht="15.15" spans="1:4">
+      <c r="A53" s="6"/>
+      <c r="B53" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="5">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="54" ht="15.15" spans="1:4">
+      <c r="A54" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="5">
+        <v>5131</v>
+      </c>
+    </row>
+    <row r="55" ht="15.15" spans="1:4">
+      <c r="A55" s="3"/>
+      <c r="B55" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="5">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="56" ht="15.15" spans="1:4">
+      <c r="A56" s="3"/>
+      <c r="B56" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="5">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="57" ht="15.15" spans="1:4">
+      <c r="A57" s="3"/>
+      <c r="B57" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="5">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="58" ht="15.15" spans="1:4">
+      <c r="A58" s="3"/>
+      <c r="B58" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="5">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="59" ht="15.15" spans="1:4">
+      <c r="A59" s="3"/>
+      <c r="B59" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="5">
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="60" ht="15.15" spans="1:4">
+      <c r="A60" s="3"/>
+      <c r="B60" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="5">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="61" ht="15.15" spans="1:4">
+      <c r="A61" s="3"/>
+      <c r="B61" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" s="5">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="62" ht="15.15" spans="1:4">
+      <c r="A62" s="3"/>
+      <c r="B62" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="5">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="63" ht="15.15" spans="1:4">
+      <c r="A63" s="3"/>
+      <c r="B63" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="5">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="64" ht="15.15" spans="1:4">
+      <c r="A64" s="3"/>
+      <c r="B64" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="5">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="65" ht="15.15" spans="1:4">
+      <c r="A65" s="3"/>
+      <c r="B65" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="5">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="66" ht="15.15" spans="1:4">
+      <c r="A66" s="3"/>
+      <c r="B66" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="5">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="67" ht="15.15" spans="1:4">
+      <c r="A67" s="3"/>
+      <c r="B67" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="5">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="68" ht="15.15" spans="1:4">
+      <c r="A68" s="3"/>
+      <c r="B68" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" s="5">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="69" ht="15.15" spans="1:4">
+      <c r="A69" s="3"/>
+      <c r="B69" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="5">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="70" ht="15.15" spans="1:4">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" s="5">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="71" ht="15.15" spans="1:4">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="72" ht="15.15" spans="1:4">
+      <c r="A72" s="3"/>
+      <c r="B72" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" s="5">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="73" ht="15.15" spans="1:4">
+      <c r="A73" s="6"/>
+      <c r="B73" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="74" ht="15.15" spans="1:4">
+      <c r="A74" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D74" s="5">
+        <v>4936</v>
+      </c>
+    </row>
+    <row r="75" ht="15.15" spans="1:4">
+      <c r="A75" s="7"/>
+      <c r="B75" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75" s="5">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="76" ht="15.15" spans="1:4">
+      <c r="A76" s="7"/>
+      <c r="B76" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76" s="5">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="77" ht="15.15" spans="1:4">
+      <c r="A77" s="7"/>
+      <c r="B77" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" s="5">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="78" ht="15.15" spans="1:4">
+      <c r="A78" s="7"/>
+      <c r="B78" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" s="5">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="79" ht="15.15" spans="1:4">
+      <c r="A79" s="7"/>
+      <c r="B79" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" s="5">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="80" ht="15.15" spans="1:4">
+      <c r="A80" s="7"/>
+      <c r="B80" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D80" s="5">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="81" ht="15.15" spans="1:4">
+      <c r="A81" s="7"/>
+      <c r="B81" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D81" s="5">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="82" ht="15.15" spans="1:4">
+      <c r="A82" s="7"/>
+      <c r="B82" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82" s="5">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="83" ht="15.15" spans="1:4">
+      <c r="A83" s="7"/>
+      <c r="B83" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="84" ht="15.15" spans="1:4">
+      <c r="A84" s="7"/>
+      <c r="B84" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D84" s="5">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="85" ht="15.15" spans="1:4">
+      <c r="A85" s="7"/>
+      <c r="B85" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D85" s="5">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="86" ht="15.15" spans="1:4">
+      <c r="A86" s="7"/>
+      <c r="B86" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D86" s="5">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="87" ht="15.15" spans="1:4">
+      <c r="A87" s="7"/>
+      <c r="B87" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87" s="5">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="88" ht="15.15" spans="1:4">
+      <c r="A88" s="7"/>
+      <c r="B88" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D88" s="5">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="89" ht="15.15" spans="1:4">
+      <c r="A89" s="7"/>
+      <c r="B89" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" s="5">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="90" ht="15.15" spans="1:4">
+      <c r="A90" s="8"/>
+      <c r="B90" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D90" s="5">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="91" ht="15.15" spans="1:4">
+      <c r="A91" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D91" s="5">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="92" ht="15.15" spans="1:4">
+      <c r="A92" s="7"/>
+      <c r="B92" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D92" s="5">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="93" ht="15.15" spans="1:4">
+      <c r="A93" s="7"/>
+      <c r="B93" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D93" s="5">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="94" ht="15.15" spans="1:4">
+      <c r="A94" s="7"/>
+      <c r="B94" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D94" s="5">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="95" ht="15.15" spans="1:4">
+      <c r="A95" s="7"/>
+      <c r="B95" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D95" s="5">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="96" ht="15.15" spans="1:4">
+      <c r="A96" s="7"/>
+      <c r="B96" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D96" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="97" ht="15.15" spans="1:4">
+      <c r="A97" s="7"/>
+      <c r="B97" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D97" s="5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="98" ht="15.15" spans="1:4">
+      <c r="A98" s="8"/>
+      <c r="B98" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D98" s="5">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="99" ht="15.15" spans="1:4">
+      <c r="A99" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D99" s="5">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="100" ht="15.15" spans="1:4">
+      <c r="A100" s="7"/>
+      <c r="B100" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D100" s="5">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="101" ht="15.15" spans="1:4">
+      <c r="A101" s="7"/>
+      <c r="B101" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D101" s="5">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="102" ht="15.15" spans="1:4">
+      <c r="A102" s="7"/>
+      <c r="B102" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D102" s="5">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="103" ht="15.15" spans="1:4">
+      <c r="A103" s="8"/>
+      <c r="B103" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D103" s="5">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="104" ht="15.15" spans="1:4">
+      <c r="A104" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D104" s="5">
+        <v>21040</v>
+      </c>
+    </row>
+    <row r="105" ht="15.15" spans="1:4">
+      <c r="A105" s="7"/>
+      <c r="B105" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D105" s="5">
+        <v>11806</v>
+      </c>
+    </row>
+    <row r="106" ht="15.15" spans="1:4">
+      <c r="A106" s="7"/>
+      <c r="B106" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D106" s="5">
+        <v>6408</v>
+      </c>
+    </row>
+    <row r="107" ht="15.15" spans="1:4">
+      <c r="A107" s="7"/>
+      <c r="B107" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D107" s="5">
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="108" ht="15.15" spans="1:4">
+      <c r="A108" s="7"/>
+      <c r="B108" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D108" s="5">
+        <v>4122</v>
+      </c>
+    </row>
+    <row r="109" ht="15.15" spans="1:4">
+      <c r="A109" s="7"/>
+      <c r="B109" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D109" s="5">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="110" ht="15.15" spans="1:4">
+      <c r="A110" s="7"/>
+      <c r="B110" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D110" s="5">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="111" ht="15.15" spans="1:4">
+      <c r="A111" s="7"/>
+      <c r="B111" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D111" s="5">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="112" ht="15.15" spans="1:4">
+      <c r="A112" s="7"/>
+      <c r="B112" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D112" s="5">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="113" ht="15.15" spans="1:4">
+      <c r="A113" s="7"/>
+      <c r="B113" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D113" s="5">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="114" ht="15.15" spans="1:4">
+      <c r="A114" s="7"/>
+      <c r="B114" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D114" s="5">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="115" ht="15.15" spans="1:4">
+      <c r="A115" s="7"/>
+      <c r="B115" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D115" s="5">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="116" ht="15.15" spans="1:4">
+      <c r="A116" s="7"/>
+      <c r="B116" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D116" s="5">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="117" ht="15.15" spans="1:4">
+      <c r="A117" s="7"/>
+      <c r="B117" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D117" s="5">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="118" ht="15.15" spans="1:4">
+      <c r="A118" s="8"/>
+      <c r="B118" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D118" s="5">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="119" ht="15.15" spans="1:4">
+      <c r="A119" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D119" s="5">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="120" ht="15.15" spans="1:4">
+      <c r="A120" s="7"/>
+      <c r="B120" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D120" s="5">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="121" ht="15.15" spans="1:4">
+      <c r="A121" s="7"/>
+      <c r="B121" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D121" s="5">
+        <v>8289</v>
+      </c>
+    </row>
+    <row r="122" ht="15.15" spans="1:4">
+      <c r="A122" s="7"/>
+      <c r="B122" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D122" s="5">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="123" ht="15.15" spans="1:4">
+      <c r="A123" s="7"/>
+      <c r="B123" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D123" s="5">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="124" ht="15.15" spans="1:4">
+      <c r="A124" s="8"/>
+      <c r="B124" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D124" s="5">
+        <v>2100</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="https://www.kaggle.com/datasets/jerrinbright/cheetahtigerwolf"/>
-    <hyperlink ref="H4" r:id="rId2" display="https://www.kaggle.com/datasets/noamaanabdulazeem/myfile"/>
-    <hyperlink ref="H5" r:id="rId3" display="https://www.kaggle.com/datasets/mistag/arthropod-taxonomy-orders-object-detection-dataset"/>
-    <hyperlink ref="H10" r:id="rId4" display="https://www.kaggle.com/datasets/kushagra3204/wheat-plant-diseases"/>
-    <hyperlink ref="H7" r:id="rId5" display="https://www.kaggle.com/datasets/keycia/vegetables-nutrionix"/>
-    <hyperlink ref="H6" r:id="rId6" display="https://www.kaggle.com/datasets/shadikfaysal/fruit-and-vegetables-ssm?resource=download"/>
-  </hyperlinks>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="A43:A53"/>
+    <mergeCell ref="A54:A73"/>
+    <mergeCell ref="A74:A90"/>
+    <mergeCell ref="A91:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A118"/>
+    <mergeCell ref="A119:A124"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
